--- a/TestData/ShareholdingCategory (4).xlsx
+++ b/TestData/ShareholdingCategory (4).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE3B15F-D979-4CA2-8FE3-F59DB073A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ShareHoldingCategory" sheetId="1" r:id="rId1"/>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -491,20 +490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
